--- a/data-raw/Suisun/Suisun comments.xlsx
+++ b/data-raw/Suisun/Suisun comments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbashevkin\Documents\LTMRdata\data-raw\Suisun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A5DCB9-85A6-4851-8147-60CC397AEC60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE9FBD8-9E77-4199-B0EE-7640AF0D90D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="-2604" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="6075" windowWidth="29235" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suisun comments" sheetId="1" r:id="rId1"/>
@@ -11632,8 +11632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G73" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A1172" workbookViewId="0">
+      <selection activeCell="I1187" sqref="I1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50050,7 +50050,7 @@
         <v>69</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" s="3" t="s">
         <v>3553</v>

--- a/data-raw/Suisun/Suisun comments.xlsx
+++ b/data-raw/Suisun/Suisun comments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ETham\Documents\LTMRdata\LTMRdata\data-raw\Suisun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TXNguyen\Documents\Git\enoch\LTMRdata\data-raw\Suisun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3F448-A6FC-4514-8B0C-CD7F725094ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60BCDD6-4541-4363-B9E8-5787B265C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8535" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suisun comments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9866" uniqueCount="3647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10011" uniqueCount="3719">
   <si>
     <t>SampleRowID</t>
   </si>
@@ -10972,6 +10972,222 @@
   </si>
   <si>
     <t>Age 2+</t>
+  </si>
+  <si>
+    <t>{9C145392-058F-4632-9F3A-966127804227}</t>
+  </si>
+  <si>
+    <t>2023-07-07T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-07-07T17:05:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {9C145392-058F-4632-9F3A-966127804227}</t>
+  </si>
+  <si>
+    <t>Age-0</t>
+  </si>
+  <si>
+    <t>{1A816A23-EAE6-4C26-AA15-8435DC3D9066}</t>
+  </si>
+  <si>
+    <t>2023-07-07T22:45:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {1A816A23-EAE6-4C26-AA15-8435DC3D9066}</t>
+  </si>
+  <si>
+    <t>{6EA0F154-09B4-4573-B360-F4B85CA930E4}</t>
+  </si>
+  <si>
+    <t>2023-01-24T08:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-01-24T16:05:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {6EA0F154-09B4-4573-B360-F4B85CA930E4}</t>
+  </si>
+  <si>
+    <t>age 2+</t>
+  </si>
+  <si>
+    <t>Age-2+</t>
+  </si>
+  <si>
+    <t>{6A456BF0-40D8-43FE-A0B0-F96B14D0D2C9}</t>
+  </si>
+  <si>
+    <t>2023-07-07T19:00:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {6A456BF0-40D8-43FE-A0B0-F96B14D0D2C9}</t>
+  </si>
+  <si>
+    <t>{E96AE801-F77B-432E-9626-6FB6D52FB6FB}</t>
+  </si>
+  <si>
+    <t>2023-05-09T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-05-09T16:30:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {E96AE801-F77B-432E-9626-6FB6D52FB6FB}</t>
+  </si>
+  <si>
+    <t>age 2+ (~250 mm SL)</t>
+  </si>
+  <si>
+    <t>{C19E0E17-354B-4FD5-897F-43C1850D8F9F}</t>
+  </si>
+  <si>
+    <t>2023-06-05T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T18:10:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {C19E0E17-354B-4FD5-897F-43C1850D8F9F}</t>
+  </si>
+  <si>
+    <t>age-o fish (&lt;30 mm SL)</t>
+  </si>
+  <si>
+    <t>{8CB9D931-5DB8-49F8-BB6F-E1A63F67A041}</t>
+  </si>
+  <si>
+    <t>2023-07-06T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-07-06T19:50:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {8CB9D931-5DB8-49F8-BB6F-E1A63F67A041}</t>
+  </si>
+  <si>
+    <t>age-0 fish</t>
+  </si>
+  <si>
+    <t>{F9B672C0-412B-41EF-AEB1-FEE27BDA19DB}</t>
+  </si>
+  <si>
+    <t>2024-01-17T08:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-01-17T18:05:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {F9B672C0-412B-41EF-AEB1-FEE27BDA19DB}</t>
+  </si>
+  <si>
+    <t>age 1</t>
+  </si>
+  <si>
+    <t>{1F477B21-B23A-42C4-AC9E-0C3777CBC9C1}</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T22:15:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {1F477B21-B23A-42C4-AC9E-0C3777CBC9C1}</t>
+  </si>
+  <si>
+    <t>&gt;250 mm SL</t>
+  </si>
+  <si>
+    <t>{540D02CB-967A-4AC5-8A59-0FBD27A586F4}</t>
+  </si>
+  <si>
+    <t>2023-08-14T19:47:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {540D02CB-967A-4AC5-8A59-0FBD27A586F4}</t>
+  </si>
+  <si>
+    <t>&gt;200 mm SL;age 0</t>
+  </si>
+  <si>
+    <t>{2240BC97-537F-4227-9FC8-9C92784FABC7}</t>
+  </si>
+  <si>
+    <t>2023-08-16T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-08-16T22:00:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {2240BC97-537F-4227-9FC8-9C92784FABC7}</t>
+  </si>
+  <si>
+    <t>&gt;250 mm</t>
+  </si>
+  <si>
+    <t>{66BCFF1B-50CB-4F3A-93D1-0BAE8BE19FC4}</t>
+  </si>
+  <si>
+    <t>2024-01-16T08:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-01-16T20:10:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {66BCFF1B-50CB-4F3A-93D1-0BAE8BE19FC4}</t>
+  </si>
+  <si>
+    <t>age-1</t>
+  </si>
+  <si>
+    <t>{EFCC13C5-4BAE-4A3A-97F0-F4646E4075BD}</t>
+  </si>
+  <si>
+    <t>2024-01-17T16:15:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {EFCC13C5-4BAE-4A3A-97F0-F4646E4075BD}</t>
+  </si>
+  <si>
+    <t>{37C76BCD-2FF7-485B-87BC-6352E09E96CF}</t>
+  </si>
+  <si>
+    <t>2023-09-13T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-09-13T22:55:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {37C76BCD-2FF7-485B-87BC-6352E09E96CF}</t>
+  </si>
+  <si>
+    <t>12 age 0; 1 age 2+</t>
+  </si>
+  <si>
+    <t>{42C9096A-2E16-426D-B1BA-EDCCA0D37210}</t>
+  </si>
+  <si>
+    <t>2023-10-04T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-10-04T16:20:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {42C9096A-2E16-426D-B1BA-EDCCA0D37210}</t>
+  </si>
+  <si>
+    <t>{7C4C8665-DC7C-459D-9A41-5016412C7B14}</t>
+  </si>
+  <si>
+    <t>2023-10-04T15:45:00Z</t>
+  </si>
+  <si>
+    <t>Suisun {7C4C8665-DC7C-459D-9A41-5016412C7B14}</t>
+  </si>
+  <si>
+    <t>What to do with the 1 age2+, new line?</t>
   </si>
 </sst>
 </file>
@@ -11482,12 +11698,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11549,9 +11766,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11589,7 +11806,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11695,7 +11912,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11837,7 +12054,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11845,12 +12062,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1206"/>
+  <dimension ref="A1:O1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1174" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1193" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J1190" sqref="J1190"/>
+      <selection pane="bottomLeft" activeCell="I1208" sqref="I1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50700,7 +50917,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="1201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
         <v>3622</v>
       </c>
@@ -50732,7 +50949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>3625</v>
       </c>
@@ -50764,7 +50981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>3628</v>
       </c>
@@ -50796,7 +51013,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="1204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>3633</v>
       </c>
@@ -50831,7 +51048,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="1205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>3637</v>
       </c>
@@ -50866,7 +51083,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="1206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>3642</v>
       </c>
@@ -50900,6 +51117,610 @@
       <c r="M1206" s="1" t="s">
         <v>3646</v>
       </c>
+    </row>
+    <row r="1207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1207">
+        <v>31</v>
+      </c>
+      <c r="I1207" s="5" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J1207" s="5"/>
+      <c r="K1207" s="5"/>
+      <c r="L1207" s="5"/>
+      <c r="M1207" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1207" s="5"/>
+      <c r="O1207" s="5"/>
+    </row>
+    <row r="1208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>3653</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>3654</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1208">
+        <v>15</v>
+      </c>
+      <c r="I1208" s="5" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J1208" s="5"/>
+      <c r="K1208" s="5"/>
+      <c r="L1208" s="5"/>
+      <c r="M1208" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1208" s="5"/>
+      <c r="O1208" s="5"/>
+    </row>
+    <row r="1209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1209">
+        <v>1</v>
+      </c>
+      <c r="I1209" s="5" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1209" s="5"/>
+      <c r="K1209" s="5"/>
+      <c r="L1209" s="5"/>
+      <c r="M1209" s="5" t="s">
+        <v>3660</v>
+      </c>
+      <c r="N1209" s="5"/>
+      <c r="O1209" s="5"/>
+    </row>
+    <row r="1210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>3662</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>3663</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1210">
+        <v>2</v>
+      </c>
+      <c r="I1210" s="5" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J1210" s="5"/>
+      <c r="K1210" s="5"/>
+      <c r="L1210" s="5"/>
+      <c r="M1210" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1210" s="5"/>
+      <c r="O1210" s="5"/>
+    </row>
+    <row r="1211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>3666</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>3667</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1211">
+        <v>1</v>
+      </c>
+      <c r="I1211" s="5" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1211" s="5"/>
+      <c r="K1211" s="5">
+        <v>250</v>
+      </c>
+      <c r="L1211" s="5"/>
+      <c r="M1211" s="5" t="s">
+        <v>3660</v>
+      </c>
+      <c r="N1211" s="5"/>
+      <c r="O1211" s="5"/>
+    </row>
+    <row r="1212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1212">
+        <v>11</v>
+      </c>
+      <c r="I1212" s="5" t="s">
+        <v>3673</v>
+      </c>
+      <c r="J1212" s="5"/>
+      <c r="K1212" s="5"/>
+      <c r="L1212" s="5">
+        <v>30</v>
+      </c>
+      <c r="M1212" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1212" s="5"/>
+      <c r="O1212" s="5"/>
+    </row>
+    <row r="1213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>3677</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1213">
+        <v>61</v>
+      </c>
+      <c r="I1213" s="5" t="s">
+        <v>3678</v>
+      </c>
+      <c r="J1213" s="5"/>
+      <c r="K1213" s="5"/>
+      <c r="L1213" s="5"/>
+      <c r="M1213" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1213" s="5"/>
+      <c r="O1213" s="5"/>
+    </row>
+    <row r="1214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1214">
+        <v>41</v>
+      </c>
+      <c r="I1214" s="5" t="s">
+        <v>3683</v>
+      </c>
+      <c r="J1214" s="5"/>
+      <c r="K1214" s="5"/>
+      <c r="L1214" s="5"/>
+      <c r="M1214" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="N1214" s="5"/>
+      <c r="O1214" s="5"/>
+    </row>
+    <row r="1215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>3687</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1215">
+        <v>1</v>
+      </c>
+      <c r="I1215" s="5" t="s">
+        <v>3688</v>
+      </c>
+      <c r="J1215" s="5">
+        <v>250</v>
+      </c>
+      <c r="K1215" s="5"/>
+      <c r="L1215" s="5"/>
+      <c r="M1215" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1215" s="5"/>
+      <c r="O1215" s="5"/>
+    </row>
+    <row r="1216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>3691</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1216">
+        <v>7</v>
+      </c>
+      <c r="I1216" s="5" t="s">
+        <v>3692</v>
+      </c>
+      <c r="J1216" s="5">
+        <v>200</v>
+      </c>
+      <c r="K1216" s="5"/>
+      <c r="L1216" s="5"/>
+      <c r="M1216" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1216" s="5"/>
+      <c r="O1216" s="5"/>
+    </row>
+    <row r="1217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1217">
+        <v>1</v>
+      </c>
+      <c r="I1217" s="5" t="s">
+        <v>3697</v>
+      </c>
+      <c r="J1217" s="5">
+        <v>250</v>
+      </c>
+      <c r="K1217" s="5"/>
+      <c r="L1217" s="5"/>
+      <c r="M1217" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1217" s="5"/>
+      <c r="O1217" s="5"/>
+    </row>
+    <row r="1218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>3701</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1218">
+        <v>16</v>
+      </c>
+      <c r="I1218" s="5" t="s">
+        <v>3702</v>
+      </c>
+      <c r="J1218" s="5"/>
+      <c r="K1218" s="5"/>
+      <c r="L1218" s="5"/>
+      <c r="M1218" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="N1218" s="5"/>
+      <c r="O1218" s="5"/>
+    </row>
+    <row r="1219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>3704</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1219">
+        <v>5</v>
+      </c>
+      <c r="I1219" s="5" t="s">
+        <v>3683</v>
+      </c>
+      <c r="J1219" s="5"/>
+      <c r="K1219" s="5"/>
+      <c r="L1219" s="5"/>
+      <c r="M1219" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="N1219" s="5"/>
+      <c r="O1219" s="5"/>
+    </row>
+    <row r="1220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>3708</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1220">
+        <v>13</v>
+      </c>
+      <c r="I1220" s="5" t="s">
+        <v>3710</v>
+      </c>
+      <c r="J1220" s="5"/>
+      <c r="K1220" s="5"/>
+      <c r="L1220" s="5"/>
+      <c r="M1220" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1220" s="5"/>
+      <c r="O1220" s="5" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>3713</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>3714</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1221">
+        <v>33</v>
+      </c>
+      <c r="I1221" s="5" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J1221" s="5"/>
+      <c r="K1221" s="5"/>
+      <c r="L1221" s="5"/>
+      <c r="M1221" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1221" s="5"/>
+      <c r="O1221" s="5"/>
+    </row>
+    <row r="1222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>3716</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>3717</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1222">
+        <v>27</v>
+      </c>
+      <c r="I1222" s="5" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J1222" s="5"/>
+      <c r="K1222" s="5"/>
+      <c r="L1222" s="5"/>
+      <c r="M1222" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1222" s="5"/>
+      <c r="O1222" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/Suisun/Suisun comments.xlsx
+++ b/data-raw/Suisun/Suisun comments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TXNguyen\Documents\Git\enoch\LTMRdata\data-raw\Suisun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbashevkin\Documents\LTMRdata\data-raw\Suisun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60BCDD6-4541-4363-B9E8-5787B265C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150A2CE9-D856-4F3C-822D-BCF704177329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suisun comments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10011" uniqueCount="3719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10021" uniqueCount="3718">
   <si>
     <t>SampleRowID</t>
   </si>
@@ -11185,9 +11185,6 @@
   </si>
   <si>
     <t>Suisun {7C4C8665-DC7C-459D-9A41-5016412C7B14}</t>
-  </si>
-  <si>
-    <t>What to do with the 1 age2+, new line?</t>
   </si>
 </sst>
 </file>
@@ -12062,12 +12059,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1222"/>
+  <dimension ref="A1:O1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1193" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1130" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I1208" sqref="I1208"/>
+      <selection pane="bottomLeft" activeCell="M1146" sqref="M1146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51632,7 +51629,7 @@
         <v>60</v>
       </c>
       <c r="H1220">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1220" s="5" t="s">
         <v>3710</v>
@@ -51645,24 +51642,24 @@
       </c>
       <c r="N1220" s="5"/>
       <c r="O1220" s="5" t="s">
-        <v>3718</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>3711</v>
+        <v>3706</v>
       </c>
       <c r="B1221" t="s">
         <v>37</v>
       </c>
       <c r="C1221" t="s">
-        <v>3712</v>
+        <v>3707</v>
       </c>
       <c r="D1221" t="s">
-        <v>3713</v>
+        <v>3708</v>
       </c>
       <c r="E1221" t="s">
-        <v>3714</v>
+        <v>3709</v>
       </c>
       <c r="F1221" t="s">
         <v>10</v>
@@ -51671,35 +51668,37 @@
         <v>60</v>
       </c>
       <c r="H1221">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I1221" s="5" t="s">
-        <v>3631</v>
+        <v>3710</v>
       </c>
       <c r="J1221" s="5"/>
       <c r="K1221" s="5"/>
       <c r="L1221" s="5"/>
       <c r="M1221" s="5" t="s">
-        <v>3651</v>
+        <v>3660</v>
       </c>
       <c r="N1221" s="5"/>
-      <c r="O1221" s="5"/>
+      <c r="O1221" s="5" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="1222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>3715</v>
+        <v>3711</v>
       </c>
       <c r="B1222" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C1222" t="s">
         <v>3712</v>
       </c>
       <c r="D1222" t="s">
-        <v>3716</v>
+        <v>3713</v>
       </c>
       <c r="E1222" t="s">
-        <v>3717</v>
+        <v>3714</v>
       </c>
       <c r="F1222" t="s">
         <v>10</v>
@@ -51708,7 +51707,7 @@
         <v>60</v>
       </c>
       <c r="H1222">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I1222" s="5" t="s">
         <v>3631</v>
@@ -51722,6 +51721,43 @@
       <c r="N1222" s="5"/>
       <c r="O1222" s="5"/>
     </row>
+    <row r="1223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>3716</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>3717</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1223">
+        <v>27</v>
+      </c>
+      <c r="I1223" s="5" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J1223" s="5"/>
+      <c r="K1223" s="5"/>
+      <c r="L1223" s="5"/>
+      <c r="M1223" s="5" t="s">
+        <v>3651</v>
+      </c>
+      <c r="N1223" s="5"/>
+      <c r="O1223" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
